--- a/mereni_MD/Prumery/Sval2.xlsx
+++ b/mereni_MD/Prumery/Sval2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B72AE01-CA0B-46C0-8FB2-5496DC1F5644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA63485-A5FF-44A1-B026-B7BD66D6D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
   <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <f>AVERAGE(B$4:B$15)</f>
-        <v>22.9055</v>
+        <v>2.2905500000000001</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:G3" si="0">AVERAGE(C$4:C$15)</f>
@@ -418,7 +418,7 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>3.6835166666666663</v>
+        <v>0.36835166666666669</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>22.956</v>
+        <v>2.2955999999999999</v>
       </c>
       <c r="C5">
         <v>577.66</v>
@@ -460,7 +460,7 @@
         <v>0.99919999999999998</v>
       </c>
       <c r="F5">
-        <v>3.6795</v>
+        <v>0.36795</v>
       </c>
       <c r="G5">
         <v>-2.0312999999999999</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>22.960999999999999</v>
+        <v>2.2961</v>
       </c>
       <c r="C6">
         <v>554.03</v>
@@ -480,7 +480,7 @@
         <v>0.99890000000000001</v>
       </c>
       <c r="F6">
-        <v>3.6678000000000002</v>
+        <v>0.36677999999999999</v>
       </c>
       <c r="G6">
         <v>-5.3967999999999998</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>22.963000000000001</v>
+        <v>2.2963</v>
       </c>
       <c r="C7">
         <v>583.76</v>
@@ -500,7 +500,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="F7">
-        <v>3.7136999999999998</v>
+        <v>0.37136999999999998</v>
       </c>
       <c r="G7">
         <v>-1.6211</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>22.780999999999999</v>
+        <v>2.2780999999999998</v>
       </c>
       <c r="C8">
         <v>553.46</v>
@@ -520,7 +520,7 @@
         <v>0.99890000000000001</v>
       </c>
       <c r="F8">
-        <v>3.6389999999999998</v>
+        <v>0.3639</v>
       </c>
       <c r="G8">
         <v>-5.2302</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>22.963000000000001</v>
+        <v>2.2963</v>
       </c>
       <c r="C9">
         <v>583.76</v>
@@ -540,7 +540,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="F9">
-        <v>3.7136999999999998</v>
+        <v>0.37136999999999998</v>
       </c>
       <c r="G9">
         <v>-1.6211</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>22.809000000000001</v>
+        <v>2.2808999999999999</v>
       </c>
       <c r="C10">
         <v>581.44000000000005</v>
@@ -560,7 +560,7 @@
         <v>0.99929999999999997</v>
       </c>
       <c r="F10">
-        <v>3.6873999999999998</v>
+        <v>0.36874000000000001</v>
       </c>
       <c r="G10">
         <v>-1.8090999999999999</v>
